--- a/document/交易大盘数据库设计表@20180409.xlsx
+++ b/document/交易大盘数据库设计表@20180409.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\数据库设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{545004C1-880A-4154-9D21-C919E2A603F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3BE85C9C-117A-45DD-A57A-2FF74372583E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="538">
   <si>
     <t>user_tab</t>
   </si>
@@ -1971,6 +1971,13 @@
   </si>
   <si>
     <t>typeStatus</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>（预留字段）</t>
+  </si>
+  <si>
+    <t>（预留字段）</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -13163,8 +13170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D31938-9174-455F-B026-B5A3954C1640}">
   <dimension ref="B2:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -13700,9 +13707,7 @@
       <c r="E25" s="59">
         <v>32</v>
       </c>
-      <c r="F25" s="59" t="s">
-        <v>15</v>
-      </c>
+      <c r="F25" s="59"/>
       <c r="G25" s="59"/>
       <c r="H25" s="59"/>
       <c r="I25" s="59"/>
@@ -13806,9 +13811,7 @@
         <v>45</v>
       </c>
       <c r="E30" s="59"/>
-      <c r="F30" s="59" t="s">
-        <v>15</v>
-      </c>
+      <c r="F30" s="59"/>
       <c r="G30" s="59"/>
       <c r="H30" s="59"/>
       <c r="I30" s="59"/>
@@ -14103,7 +14106,7 @@
       <c r="B44" s="57" t="s">
         <v>463</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="41" t="s">
         <v>468</v>
       </c>
       <c r="D44" s="59" t="s">
@@ -14121,13 +14124,15 @@
       <c r="J44" s="59">
         <v>0</v>
       </c>
-      <c r="K44" s="58"/>
+      <c r="K44" s="58" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="41" t="s">
         <v>469</v>
       </c>
       <c r="D45" s="59" t="s">
@@ -14145,7 +14150,9 @@
       <c r="J45" s="59">
         <v>0</v>
       </c>
-      <c r="K45" s="58"/>
+      <c r="K45" s="58" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="57" t="s">
@@ -14175,7 +14182,7 @@
       <c r="B47" s="100" t="s">
         <v>501</v>
       </c>
-      <c r="C47" s="99" t="s">
+      <c r="C47" s="41" t="s">
         <v>452</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -14193,7 +14200,9 @@
       <c r="J47" s="7">
         <v>0</v>
       </c>
-      <c r="K47" s="6"/>
+      <c r="K47" s="99" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="100" t="s">
@@ -14249,7 +14258,7 @@
       <c r="B50" s="57" t="s">
         <v>504</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="41" t="s">
         <v>505</v>
       </c>
       <c r="D50" s="59" t="s">
@@ -14261,7 +14270,9 @@
       <c r="H50" s="59"/>
       <c r="I50" s="59"/>
       <c r="J50" s="59"/>
-      <c r="K50" s="58"/>
+      <c r="K50" s="58" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="57" t="s">
@@ -14294,9 +14305,7 @@
         <v>45</v>
       </c>
       <c r="E52" s="59"/>
-      <c r="F52" s="59" t="s">
-        <v>15</v>
-      </c>
+      <c r="F52" s="59"/>
       <c r="G52" s="59"/>
       <c r="H52" s="59"/>
       <c r="I52" s="59"/>
@@ -14734,9 +14743,7 @@
         <v>45</v>
       </c>
       <c r="E72" s="59"/>
-      <c r="F72" s="59" t="s">
-        <v>15</v>
-      </c>
+      <c r="F72" s="59"/>
       <c r="G72" s="59"/>
       <c r="H72" s="59"/>
       <c r="I72" s="59"/>

--- a/document/交易大盘数据库设计表@20180409.xlsx
+++ b/document/交易大盘数据库设计表@20180409.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\数据库设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3BE85C9C-117A-45DD-A57A-2FF74372583E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E9EAE792-925A-46A1-BC70-029093A30945}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2589,13 +2589,13 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11657,17 +11657,17 @@
       <c r="B2" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="127" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="128"/>
+      <c r="I5" s="126"/>
       <c r="J5" s="7"/>
       <c r="K5" s="6"/>
     </row>
@@ -11870,17 +11870,17 @@
       <c r="B12" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="127" t="s">
         <v>392</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
     </row>
     <row r="13" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -11954,7 +11954,7 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="128"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="7"/>
       <c r="K15" s="6"/>
     </row>
@@ -12083,17 +12083,17 @@
       <c r="B22" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="127" t="s">
         <v>394</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
     </row>
     <row r="23" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="128"/>
+      <c r="I25" s="126"/>
       <c r="J25" s="7"/>
       <c r="K25" s="6"/>
     </row>
@@ -12296,17 +12296,17 @@
       <c r="B32" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="C32" s="127" t="s">
         <v>396</v>
       </c>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
     </row>
     <row r="33" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
@@ -12380,7 +12380,7 @@
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="128"/>
+      <c r="I35" s="126"/>
       <c r="J35" s="7"/>
       <c r="K35" s="6"/>
     </row>
@@ -12509,17 +12509,17 @@
       <c r="B42" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C42" s="126" t="s">
+      <c r="C42" s="127" t="s">
         <v>398</v>
       </c>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
     </row>
     <row r="43" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="128"/>
+      <c r="I45" s="126"/>
       <c r="J45" s="7"/>
       <c r="K45" s="6"/>
     </row>
@@ -12722,17 +12722,17 @@
       <c r="B52" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C52" s="126" t="s">
+      <c r="C52" s="127" t="s">
         <v>400</v>
       </c>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="127"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
     </row>
     <row r="53" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -12806,7 +12806,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="128"/>
+      <c r="I55" s="126"/>
       <c r="J55" s="7"/>
       <c r="K55" s="6"/>
     </row>
@@ -12935,17 +12935,17 @@
       <c r="B62" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C62" s="126" t="s">
+      <c r="C62" s="127" t="s">
         <v>402</v>
       </c>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
+      <c r="K62" s="127"/>
     </row>
     <row r="63" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
@@ -13019,7 +13019,7 @@
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="128"/>
+      <c r="I65" s="126"/>
       <c r="J65" s="7"/>
       <c r="K65" s="6"/>
     </row>
@@ -13145,6 +13145,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C42:K42"/>
     <mergeCell ref="I64:I65"/>
     <mergeCell ref="C52:K52"/>
     <mergeCell ref="C62:K62"/>
@@ -13154,11 +13159,6 @@
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="I54:I55"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C42:K42"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -13170,8 +13170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D31938-9174-455F-B026-B5A3954C1640}">
   <dimension ref="B2:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/document/交易大盘数据库设计表@20180409.xlsx
+++ b/document/交易大盘数据库设计表@20180409.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\数据库设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E9EAE792-925A-46A1-BC70-029093A30945}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EFAD8C30-1F40-425F-83E5-32249151FEE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="541">
   <si>
     <t>user_tab</t>
   </si>
@@ -1589,10 +1589,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>1：未成交，2：部分成交，3：全部成交，4：部分撤销，5：全部撤销</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>挂单比例</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -1606,10 +1602,6 @@
   </si>
   <si>
     <t>场外交易成交记录</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：买入，2：卖出，3：撤销</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -1758,10 +1750,6 @@
   </si>
   <si>
     <t>userAccount</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>paymentType</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -1978,6 +1966,30 @@
   </si>
   <si>
     <t>（预留字段）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealType</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderType</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeId</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款方式id</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：挂单中，-1删除</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：买入，2：卖出</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2222,7 +2234,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2589,14 +2601,17 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6309,7 +6324,7 @@
     </row>
     <row r="80" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="60" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C80" s="114" t="s">
         <v>174</v>
@@ -7704,7 +7719,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="59" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F48" s="59" t="s">
         <v>15</v>
@@ -11657,17 +11672,17 @@
       <c r="B2" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="126" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -11741,7 +11756,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="126"/>
+      <c r="I5" s="128"/>
       <c r="J5" s="7"/>
       <c r="K5" s="6"/>
     </row>
@@ -11870,17 +11885,17 @@
       <c r="B12" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="126" t="s">
         <v>392</v>
       </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
     </row>
     <row r="13" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -11954,7 +11969,7 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="126"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="7"/>
       <c r="K15" s="6"/>
     </row>
@@ -12083,17 +12098,17 @@
       <c r="B22" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="126" t="s">
         <v>394</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
     </row>
     <row r="23" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -12167,7 +12182,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="126"/>
+      <c r="I25" s="128"/>
       <c r="J25" s="7"/>
       <c r="K25" s="6"/>
     </row>
@@ -12296,17 +12311,17 @@
       <c r="B32" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="126" t="s">
         <v>396</v>
       </c>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
     </row>
     <row r="33" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
@@ -12380,7 +12395,7 @@
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="126"/>
+      <c r="I35" s="128"/>
       <c r="J35" s="7"/>
       <c r="K35" s="6"/>
     </row>
@@ -12509,17 +12524,17 @@
       <c r="B42" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="126" t="s">
         <v>398</v>
       </c>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
     </row>
     <row r="43" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -12593,7 +12608,7 @@
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="126"/>
+      <c r="I45" s="128"/>
       <c r="J45" s="7"/>
       <c r="K45" s="6"/>
     </row>
@@ -12722,17 +12737,17 @@
       <c r="B52" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="126" t="s">
         <v>400</v>
       </c>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
-      <c r="K52" s="127"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="127"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
     </row>
     <row r="53" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -12806,7 +12821,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="126"/>
+      <c r="I55" s="128"/>
       <c r="J55" s="7"/>
       <c r="K55" s="6"/>
     </row>
@@ -12935,17 +12950,17 @@
       <c r="B62" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C62" s="127" t="s">
+      <c r="C62" s="126" t="s">
         <v>402</v>
       </c>
-      <c r="D62" s="127"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="128"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="127"/>
-      <c r="J62" s="127"/>
-      <c r="K62" s="127"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
     </row>
     <row r="63" spans="2:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
@@ -13019,7 +13034,7 @@
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="126"/>
+      <c r="I65" s="128"/>
       <c r="J65" s="7"/>
       <c r="K65" s="6"/>
     </row>
@@ -13145,11 +13160,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="C42:K42"/>
     <mergeCell ref="I64:I65"/>
     <mergeCell ref="C52:K52"/>
     <mergeCell ref="C62:K62"/>
@@ -13159,6 +13169,11 @@
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="I54:I55"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="C42:K42"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -13168,10 +13183,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D31938-9174-455F-B026-B5A3954C1640}">
-  <dimension ref="B2:K88"/>
+  <dimension ref="B2:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -13293,7 +13308,7 @@
         <v>419</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>17</v>
@@ -13336,10 +13351,10 @@
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D8" s="59" t="s">
         <v>17</v>
@@ -13358,7 +13373,7 @@
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="57" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>436</v>
@@ -13380,7 +13395,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="97" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C10" s="97" t="s">
         <v>424</v>
@@ -13401,7 +13416,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
@@ -13485,7 +13500,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D16" s="56" t="s">
         <v>4</v>
@@ -13517,7 +13532,7 @@
         <v>439</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>14</v>
@@ -13542,7 +13557,7 @@
     </row>
     <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="57" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C18" s="57" t="s">
         <v>13</v>
@@ -13566,13 +13581,13 @@
     </row>
     <row r="19" spans="2:11" s="104" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="100" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D19" s="101" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E19" s="101">
         <v>18</v>
@@ -13756,7 +13771,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="97" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C28" s="97" t="s">
         <v>424</v>
@@ -13777,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="76" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
@@ -13820,7 +13835,7 @@
     </row>
     <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C31" s="58" t="s">
         <v>421</v>
@@ -13888,10 +13903,10 @@
     </row>
     <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="57" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D35" s="59" t="s">
         <v>17</v>
@@ -13911,15 +13926,15 @@
       </c>
       <c r="J35" s="59"/>
       <c r="K35" s="57" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="57" t="s">
-        <v>488</v>
+        <v>413</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>491</v>
+        <v>418</v>
       </c>
       <c r="D36" s="59" t="s">
         <v>14</v>
@@ -13940,7 +13955,7 @@
     </row>
     <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="57" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C37" s="58" t="s">
         <v>1</v>
@@ -13962,10 +13977,10 @@
     </row>
     <row r="38" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="57" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D38" s="59" t="s">
         <v>35</v>
@@ -13986,10 +14001,10 @@
     </row>
     <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="57" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D39" s="59" t="s">
         <v>14</v>
@@ -14010,10 +14025,10 @@
     </row>
     <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="57" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C40" s="58" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D40" s="59" t="s">
         <v>17</v>
@@ -14032,10 +14047,10 @@
     </row>
     <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="57" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D41" s="59" t="s">
         <v>28</v>
@@ -14056,10 +14071,10 @@
     </row>
     <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D42" s="59" t="s">
         <v>28</v>
@@ -14080,10 +14095,10 @@
     </row>
     <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="57" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D43" s="59" t="s">
         <v>28</v>
@@ -14104,10 +14119,10 @@
     </row>
     <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="57" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D44" s="59" t="s">
         <v>28</v>
@@ -14125,15 +14140,15 @@
         <v>0</v>
       </c>
       <c r="K44" s="58" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="57" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D45" s="59" t="s">
         <v>28</v>
@@ -14151,15 +14166,15 @@
         <v>0</v>
       </c>
       <c r="K45" s="58" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="57" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D46" s="59" t="s">
         <v>28</v>
@@ -14180,7 +14195,7 @@
     </row>
     <row r="47" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" s="100" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C47" s="41" t="s">
         <v>452</v>
@@ -14201,15 +14216,15 @@
         <v>0</v>
       </c>
       <c r="K47" s="99" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="100" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C48" s="99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D48" s="59" t="s">
         <v>17</v>
@@ -14224,16 +14239,16 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="101" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="57" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D49" s="59" t="s">
         <v>35</v>
@@ -14251,15 +14266,15 @@
         <v>1</v>
       </c>
       <c r="K49" s="88" t="s">
-        <v>453</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="57" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D50" s="59" t="s">
         <v>45</v>
@@ -14271,7 +14286,7 @@
       <c r="I50" s="59"/>
       <c r="J50" s="59"/>
       <c r="K50" s="58" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
@@ -14314,7 +14329,7 @@
     </row>
     <row r="53" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="57" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C53" s="58" t="s">
         <v>84</v>
@@ -14334,10 +14349,10 @@
     </row>
     <row r="55" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="60" t="s">
+        <v>455</v>
+      </c>
+      <c r="C55" s="105" t="s">
         <v>456</v>
-      </c>
-      <c r="C55" s="105" t="s">
-        <v>457</v>
       </c>
       <c r="D55" s="105"/>
       <c r="E55" s="105"/>
@@ -14382,7 +14397,7 @@
     </row>
     <row r="57" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B57" s="57" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C57" s="57" t="s">
         <v>88</v>
@@ -14405,15 +14420,15 @@
       </c>
       <c r="J57" s="59"/>
       <c r="K57" s="87" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B58" s="57" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D58" s="59" t="s">
         <v>17</v>
@@ -14434,10 +14449,10 @@
     </row>
     <row r="59" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B59" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>13</v>
+        <v>537</v>
+      </c>
+      <c r="C59" s="129" t="s">
+        <v>538</v>
       </c>
       <c r="D59" s="59" t="s">
         <v>14</v>
@@ -14449,47 +14464,47 @@
         <v>15</v>
       </c>
       <c r="G59" s="59"/>
-      <c r="H59" s="59" t="s">
-        <v>15</v>
-      </c>
+      <c r="H59" s="59"/>
       <c r="I59" s="59"/>
       <c r="J59" s="59"/>
-      <c r="K59" s="87"/>
+      <c r="K59" s="58"/>
     </row>
     <row r="60" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B60" s="57" t="s">
-        <v>492</v>
-      </c>
-      <c r="C60" s="58" t="s">
-        <v>1</v>
+        <v>486</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>13</v>
       </c>
       <c r="D60" s="59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E60" s="59">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F60" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
+      <c r="H60" s="59" t="s">
+        <v>15</v>
+      </c>
       <c r="I60" s="59"/>
       <c r="J60" s="59"/>
-      <c r="K60" s="41"/>
+      <c r="K60" s="87"/>
     </row>
     <row r="61" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B61" s="57" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C61" s="58" t="s">
-        <v>510</v>
+        <v>1</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E61" s="59">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F61" s="59" t="s">
         <v>15</v>
@@ -14498,68 +14513,68 @@
       <c r="H61" s="59"/>
       <c r="I61" s="59"/>
       <c r="J61" s="59"/>
-      <c r="K61" s="58" t="s">
-        <v>458</v>
-      </c>
+      <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B62" s="57" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="C62" s="58" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="D62" s="59" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E62" s="59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F62" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="59"/>
-      <c r="H62" s="59" t="s">
-        <v>15</v>
-      </c>
+      <c r="H62" s="59"/>
       <c r="I62" s="59"/>
       <c r="J62" s="59"/>
-      <c r="K62" s="58"/>
+      <c r="K62" s="58" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="63" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B63" s="57" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>96</v>
+        <v>493</v>
       </c>
       <c r="D63" s="59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E63" s="59">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F63" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
+      <c r="H63" s="59" t="s">
+        <v>15</v>
+      </c>
       <c r="I63" s="59"/>
       <c r="J63" s="59"/>
       <c r="K63" s="58"/>
     </row>
     <row r="64" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B64" s="57" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>513</v>
+        <v>96</v>
       </c>
       <c r="D64" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="E64" s="59" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="E64" s="59">
+        <v>32</v>
       </c>
       <c r="F64" s="59" t="s">
         <v>15</v>
@@ -14567,20 +14582,18 @@
       <c r="G64" s="59"/>
       <c r="H64" s="59"/>
       <c r="I64" s="59"/>
-      <c r="J64" s="59">
-        <v>0</v>
-      </c>
+      <c r="J64" s="59"/>
       <c r="K64" s="58"/>
     </row>
     <row r="65" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B65" s="57" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="C65" s="58" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="D65" s="59" t="s">
-        <v>28</v>
+        <v>511</v>
       </c>
       <c r="E65" s="59" t="s">
         <v>29</v>
@@ -14598,10 +14611,10 @@
     </row>
     <row r="66" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B66" s="57" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="C66" s="58" t="s">
-        <v>209</v>
+        <v>453</v>
       </c>
       <c r="D66" s="59" t="s">
         <v>28</v>
@@ -14622,16 +14635,16 @@
     </row>
     <row r="67" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B67" s="57" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D67" s="59" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="59" t="s">
-        <v>507</v>
+        <v>29</v>
       </c>
       <c r="F67" s="59" t="s">
         <v>15</v>
@@ -14639,21 +14652,23 @@
       <c r="G67" s="59"/>
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
+      <c r="J67" s="59">
+        <v>0</v>
+      </c>
       <c r="K67" s="58"/>
     </row>
     <row r="68" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B68" s="57" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C68" s="58" t="s">
-        <v>512</v>
+        <v>224</v>
       </c>
       <c r="D68" s="59" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="59" t="s">
-        <v>29</v>
+        <v>504</v>
       </c>
       <c r="F68" s="59" t="s">
         <v>15</v>
@@ -14661,88 +14676,92 @@
       <c r="G68" s="59"/>
       <c r="H68" s="59"/>
       <c r="I68" s="59"/>
-      <c r="J68" s="59">
-        <v>0</v>
-      </c>
+      <c r="J68" s="59"/>
       <c r="K68" s="58"/>
     </row>
     <row r="69" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B69" s="57" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C69" s="58" t="s">
-        <v>228</v>
+        <v>509</v>
       </c>
       <c r="D69" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E69" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>29</v>
+      </c>
       <c r="F69" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="59"/>
       <c r="H69" s="59"/>
       <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
+      <c r="J69" s="59">
+        <v>0</v>
+      </c>
       <c r="K69" s="58"/>
     </row>
-    <row r="70" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B70" s="97" t="s">
-        <v>483</v>
-      </c>
-      <c r="C70" s="97" t="s">
+    <row r="70" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B70" s="57" t="s">
+        <v>515</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="58"/>
+    </row>
+    <row r="71" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B71" s="97" t="s">
+        <v>481</v>
+      </c>
+      <c r="C71" s="97" t="s">
         <v>424</v>
       </c>
-      <c r="D70" s="63" t="s">
+      <c r="D71" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E71" s="63">
         <v>1</v>
       </c>
-      <c r="F70" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="63">
+      <c r="F71" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63">
         <v>1</v>
       </c>
-      <c r="K70" s="98" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B71" s="57" t="s">
-        <v>427</v>
-      </c>
-      <c r="C71" s="58" t="s">
-        <v>425</v>
-      </c>
-      <c r="D71" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="59">
-        <v>100</v>
-      </c>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="58"/>
+      <c r="K71" s="98" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="72" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B72" s="57" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C72" s="58" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D72" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="59"/>
+        <v>17</v>
+      </c>
+      <c r="E72" s="59">
+        <v>100</v>
+      </c>
       <c r="F72" s="59"/>
       <c r="G72" s="59"/>
       <c r="H72" s="59"/>
@@ -14752,158 +14771,154 @@
     </row>
     <row r="73" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B73" s="57" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="C73" s="58" t="s">
-        <v>84</v>
+        <v>423</v>
       </c>
       <c r="D73" s="59" t="s">
         <v>45</v>
       </c>
       <c r="E73" s="59"/>
-      <c r="F73" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="63"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="59"/>
       <c r="I73" s="59"/>
       <c r="J73" s="59"/>
       <c r="K73" s="58"/>
     </row>
-    <row r="75" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B75" s="60" t="s">
-        <v>473</v>
-      </c>
-      <c r="C75" s="114" t="s">
-        <v>474</v>
-      </c>
-      <c r="D75" s="115"/>
-      <c r="E75" s="115"/>
-      <c r="F75" s="115"/>
-      <c r="G75" s="115"/>
-      <c r="H75" s="115"/>
-      <c r="I75" s="115"/>
-      <c r="J75" s="115"/>
-      <c r="K75" s="116"/>
+    <row r="74" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B74" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="C74" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="63"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="58"/>
     </row>
     <row r="76" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="C76" s="114" t="s">
+        <v>472</v>
+      </c>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="115"/>
+      <c r="K76" s="116"/>
+    </row>
+    <row r="77" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B77" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C77" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="56" t="s">
+      <c r="D77" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="56" t="s">
+      <c r="E77" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="F76" s="56" t="s">
+      <c r="F77" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="56" t="s">
+      <c r="G77" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="56" t="s">
+      <c r="H77" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I76" s="56" t="s">
+      <c r="I77" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J76" s="56" t="s">
+      <c r="J77" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K76" s="55" t="s">
+      <c r="K77" s="55" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B77" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="58" t="s">
-        <v>508</v>
-      </c>
-      <c r="D77" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="E77" s="59">
-        <v>18</v>
-      </c>
-      <c r="F77" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="59"/>
-      <c r="K77" s="58"/>
     </row>
     <row r="78" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B78" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="C78" s="57" t="s">
-        <v>491</v>
+        <v>59</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>505</v>
       </c>
       <c r="D78" s="59" t="s">
-        <v>14</v>
+        <v>518</v>
       </c>
       <c r="E78" s="59">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F78" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="59"/>
+      <c r="G78" s="59" t="s">
+        <v>15</v>
+      </c>
       <c r="H78" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="I78" s="59"/>
+        <v>15</v>
+      </c>
+      <c r="I78" s="59" t="s">
+        <v>15</v>
+      </c>
       <c r="J78" s="59"/>
       <c r="K78" s="58"/>
     </row>
     <row r="79" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B79" s="57" t="s">
-        <v>492</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>104</v>
+        <v>486</v>
+      </c>
+      <c r="C79" s="57" t="s">
+        <v>489</v>
       </c>
       <c r="D79" s="59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E79" s="59">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F79" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
+      <c r="H79" s="59" t="s">
+        <v>530</v>
+      </c>
       <c r="I79" s="59"/>
       <c r="J79" s="59"/>
       <c r="K79" s="58"/>
     </row>
     <row r="80" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B80" s="57" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="C80" s="58" t="s">
-        <v>524</v>
+        <v>104</v>
       </c>
       <c r="D80" s="59" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E80" s="59">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F80" s="59" t="s">
         <v>15</v>
@@ -14912,72 +14927,68 @@
       <c r="H80" s="59"/>
       <c r="I80" s="59"/>
       <c r="J80" s="59"/>
-      <c r="K80" s="58" t="s">
-        <v>525</v>
-      </c>
+      <c r="K80" s="58"/>
     </row>
     <row r="81" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B81" s="57" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="C81" s="58" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="D81" s="59" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E81" s="59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F81" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="59"/>
-      <c r="H81" s="59" t="s">
-        <v>15</v>
-      </c>
+      <c r="H81" s="59"/>
       <c r="I81" s="59"/>
       <c r="J81" s="59"/>
-      <c r="K81" s="58"/>
+      <c r="K81" s="58" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="82" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B82" s="57" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="C82" s="58" t="s">
-        <v>172</v>
+        <v>493</v>
       </c>
       <c r="D82" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="E82" s="59" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E82" s="59">
+        <v>11</v>
       </c>
       <c r="F82" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
+      <c r="H82" s="59" t="s">
+        <v>15</v>
+      </c>
       <c r="I82" s="59"/>
-      <c r="J82" s="59">
-        <v>0</v>
-      </c>
-      <c r="K82" s="58" t="s">
-        <v>528</v>
-      </c>
+      <c r="J82" s="59"/>
+      <c r="K82" s="58"/>
     </row>
     <row r="83" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B83" s="57" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C83" s="58" t="s">
-        <v>475</v>
+        <v>172</v>
       </c>
       <c r="D83" s="59" t="s">
-        <v>28</v>
+        <v>511</v>
       </c>
       <c r="E83" s="59" t="s">
-        <v>476</v>
+        <v>29</v>
       </c>
       <c r="F83" s="59" t="s">
         <v>15</v>
@@ -14985,23 +14996,29 @@
       <c r="G83" s="59"/>
       <c r="H83" s="59"/>
       <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="58"/>
+      <c r="J83" s="59">
+        <v>0</v>
+      </c>
+      <c r="K83" s="58" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="84" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B84" s="57" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C84" s="58" t="s">
-        <v>11</v>
+        <v>473</v>
       </c>
       <c r="D84" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="59">
-        <v>200</v>
-      </c>
-      <c r="F84" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="E84" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="F84" s="59" t="s">
+        <v>15</v>
+      </c>
       <c r="G84" s="59"/>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
@@ -15010,20 +15027,18 @@
     </row>
     <row r="85" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B85" s="57" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C85" s="58" t="s">
-        <v>477</v>
+        <v>11</v>
       </c>
       <c r="D85" s="59" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="59">
-        <v>30</v>
-      </c>
-      <c r="F85" s="59" t="s">
-        <v>15</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F85" s="59"/>
       <c r="G85" s="59"/>
       <c r="H85" s="59"/>
       <c r="I85" s="59"/>
@@ -15031,76 +15046,98 @@
       <c r="K85" s="58"/>
     </row>
     <row r="86" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B86" s="102" t="s">
-        <v>534</v>
-      </c>
-      <c r="C86" s="103" t="s">
-        <v>532</v>
+      <c r="B86" s="57" t="s">
+        <v>526</v>
+      </c>
+      <c r="C86" s="58" t="s">
+        <v>475</v>
       </c>
       <c r="D86" s="59" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="E86" s="59">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F86" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="59"/>
-      <c r="H86" s="59" t="s">
-        <v>533</v>
-      </c>
+      <c r="H86" s="59"/>
       <c r="I86" s="59"/>
       <c r="J86" s="59"/>
       <c r="K86" s="58"/>
     </row>
     <row r="87" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="102" t="s">
+        <v>531</v>
+      </c>
+      <c r="C87" s="103" t="s">
+        <v>529</v>
+      </c>
+      <c r="D87" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="59">
+        <v>11</v>
+      </c>
+      <c r="F87" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59" t="s">
         <v>530</v>
       </c>
-      <c r="C87" s="58" t="s">
-        <v>531</v>
-      </c>
-      <c r="D87" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="59">
-        <v>16</v>
-      </c>
-      <c r="F87" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
       <c r="I87" s="59"/>
       <c r="J87" s="59"/>
       <c r="K87" s="58"/>
     </row>
     <row r="88" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B88" s="57" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="C88" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="D88" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="59">
+        <v>16</v>
+      </c>
+      <c r="F88" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="58"/>
+    </row>
+    <row r="89" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B89" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="C89" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="D88" s="59" t="s">
+      <c r="D89" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="76"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C33:K33"/>
     <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C75:K75"/>
+    <mergeCell ref="C76:K76"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C15:K15"/>
   </mergeCells>
